--- a/Documents/Finance/Timesheets/Ankita Gangotra/Timesheet (13.01.2014) wk-2- AG.xlsx
+++ b/Documents/Finance/Timesheets/Ankita Gangotra/Timesheet (13.01.2014) wk-2- AG.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Documents\MEng- York\Yr-3 (2013-2014)\Sweng\GitHub\SWENG\Documents\Finance Timesheets\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
@@ -17,12 +12,12 @@
   <definedNames>
     <definedName name="valuevx">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>Weekly Employee Timesheet</t>
   </si>
@@ -109,6 +104,12 @@
   </si>
   <si>
     <t>27.01.2014</t>
+  </si>
+  <si>
+    <t>P.S</t>
+  </si>
+  <si>
+    <t>Prakruti Sinha</t>
   </si>
 </sst>
 </file>
@@ -591,11 +592,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -624,9 +628,6 @@
     </xf>
     <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -689,7 +690,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -724,7 +725,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -935,8 +936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -948,95 +949,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
+      <c r="A1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
     </row>
     <row r="2" spans="1:9" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" s="12" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
     </row>
     <row r="4" spans="1:9" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="37"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="33" t="s">
+      <c r="A4" s="38"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="32"/>
-      <c r="G4" s="42" t="s">
+      <c r="F4" s="33"/>
+      <c r="G4" s="29" t="s">
         <v>25</v>
       </c>
       <c r="H4" s="30"/>
       <c r="I4" s="30"/>
     </row>
     <row r="5" spans="1:9" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="37"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
       <c r="G5" s="9"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:9" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="33" t="s">
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="32"/>
-      <c r="G6" s="29"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="29" t="s">
+        <v>29</v>
+      </c>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
     </row>
     <row r="7" spans="1:9" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
       <c r="G7" s="9"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="33" t="s">
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="34">
+      <c r="F8" s="33"/>
+      <c r="G8" s="35">
         <v>41652</v>
       </c>
-      <c r="H8" s="35"/>
+      <c r="H8" s="36"/>
       <c r="I8" s="10" t="s">
         <v>4</v>
       </c>
@@ -1304,22 +1307,22 @@
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="1:9" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
       <c r="D22" s="13">
         <f>I18</f>
         <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="36" t="s">
+      <c r="A23" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
       <c r="D23" s="13">
         <f>I20</f>
         <v>100</v>
@@ -1327,12 +1330,12 @@
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:9" s="12" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="42" t="s">
+      <c r="A25" s="29" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="30"/>
       <c r="C25" s="30"/>
-      <c r="D25" s="42" t="s">
+      <c r="D25" s="29" t="s">
         <v>27</v>
       </c>
       <c r="E25" s="30"/>
@@ -1349,10 +1352,14 @@
       <c r="E26" s="26"/>
     </row>
     <row r="27" spans="1:9" s="12" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="29"/>
+      <c r="A27" s="29" t="s">
+        <v>28</v>
+      </c>
       <c r="B27" s="30"/>
       <c r="C27" s="30"/>
-      <c r="D27" s="29"/>
+      <c r="D27" s="31">
+        <v>41668</v>
+      </c>
       <c r="E27" s="30"/>
     </row>
     <row r="28" spans="1:9" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
